--- a/template/班别_admin.xlsx
+++ b/template/班别_admin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15080"/>
+    <workbookView windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>序号</t>
   </si>
@@ -28,292 +28,15 @@
     <t>分数</t>
   </si>
   <si>
-    <t>安装Samba的命令：#yum install （      ）-y</t>
+    <t xml:space="preserve">哪个命令可以用来查看当前所在的路径？
+A. ls    B. cd    C. pwd    D. touch
+</t>
   </si>
   <si>
     <t>samba</t>
   </si>
   <si>
     <t>(        )可以让Linux支持SMB协议，实现跨平台共享文件和打印服务</t>
-  </si>
-  <si>
-    <t>（     ）服务可以提供动态分配ip地址的功能</t>
-  </si>
-  <si>
-    <t>dhcp</t>
-  </si>
-  <si>
-    <t>域名系统的简写是（     ）</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>（      ）服务器所提供的服务是完成将主机名或域名与IP地址相互转换的工作</t>
-  </si>
-  <si>
-    <t>把域名转换为IP地址称为(      )</t>
-  </si>
-  <si>
-    <t>正向解析</t>
-  </si>
-  <si>
-    <t>启动NFS服务时需要使用的两个软件包是：(        )和rpcbind</t>
-  </si>
-  <si>
-    <t>nfs-utils</t>
-  </si>
-  <si>
-    <t>组成SAMBA运行的有两个服务，一个是smb，另一个是（ ）</t>
-  </si>
-  <si>
-    <t>nmb</t>
-  </si>
-  <si>
-    <t>DHCP主程序是（       ）</t>
-  </si>
-  <si>
-    <t>dhcp-server</t>
-  </si>
-  <si>
-    <t>apache主程序：</t>
-  </si>
-  <si>
-    <t>httpd-2.4.37</t>
-  </si>
-  <si>
-    <t>SAMBA的核心服务是（  ），主要负责建立Linux SAMBA服务器与SAMBA客户机之间的对话</t>
-  </si>
-  <si>
-    <t>smb</t>
-  </si>
-  <si>
-    <t>DNS的主程序是(       )</t>
-  </si>
-  <si>
-    <t>bind-9.11.4</t>
-  </si>
-  <si>
-    <t>负责解析NetBIOS名称和网络浏览，(    )可以把Linux系统共享的工作组名称与其IP地址对应起来</t>
-  </si>
-  <si>
-    <t>启动SAMBA的smb服务：#systemctl (   ) smb</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>关闭NFS的rpcbind服务：#systemctl (   ) rpcbind</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>重启DHCP服务：#systemctl (     ) dhcpd.service</t>
-  </si>
-  <si>
-    <t>restart</t>
-  </si>
-  <si>
-    <t>查看SAMBA的smb服务运行状态：#systemctl （     ）smb</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">设置SAMBA的nmb服务开机自动启动：#systemctl （     ） nmb </t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>SAMBA服务的配置文件是（        ）</t>
-  </si>
-  <si>
-    <t>/etc/samba/smb.conf</t>
-  </si>
-  <si>
-    <t>NFS服务的主配置文件（     ）</t>
-  </si>
-  <si>
-    <t>/etc/exports</t>
-  </si>
-  <si>
-    <t>DHCP 服务器的主配置文件(      )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/dhcp/dhcpd.conf </t>
-  </si>
-  <si>
-    <t>apache服务默认主配置文件是（     ）</t>
-  </si>
-  <si>
-    <t>/etc/httpd/conf/httpd.conf</t>
-  </si>
-  <si>
-    <t>SAMBA服务器共有5种安全等级，其中（  ）安全等级是由 SAMBA 服务器负责检查 SAMBA 用户名和口令，验证成功后用户才能访问相应的共享目录</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>Samba共享定义参数：[      ]段：设定用户的主目录共享</t>
-  </si>
-  <si>
-    <t>homes</t>
-  </si>
-  <si>
-    <t>Samba共享定义参数：共享目录路径的是（       ）</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>配置Samba服务只允许192.168.56.0/24网段的主机访问的命令：hosts allow =（     ）</t>
-  </si>
-  <si>
-    <t>192.168.56.</t>
-  </si>
-  <si>
-    <t>如果Samba用户可对访问目录进行读写，则read only=（      ）</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>使用（      ）命令可以测试Samba的配置文件</t>
-  </si>
-  <si>
-    <t>testparm</t>
-  </si>
-  <si>
-    <t>修改了/etc/exports文件之后，可使用（    ）在不重启服务的情况下使设置立即生效</t>
-  </si>
-  <si>
-    <t>exportfs</t>
-  </si>
-  <si>
-    <t>使用（      ）命令测试NFS输出目录状态</t>
-  </si>
-  <si>
-    <t>showmount</t>
-  </si>
-  <si>
-    <t>通过（      ）参数可以指定动态分配给客户端的起始IP地址和结束IP地址</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>如何将ip为192.168.0.3的DNS信息加入到DHCP配置文件中</t>
-  </si>
-  <si>
-    <t>option domain-name-servers 192.168.0.3</t>
-  </si>
-  <si>
-    <t>在DHCP中哪项参数是设置MAC地址的</t>
-  </si>
-  <si>
-    <t>hardware ethernet</t>
-  </si>
-  <si>
-    <t>重启DNS服务的命令是(       )</t>
-  </si>
-  <si>
-    <t>systemctl restart named</t>
-  </si>
-  <si>
-    <t>配置DNS服务器全局参数的主配置文件是（    ）</t>
-  </si>
-  <si>
-    <t>/etc/named.conf</t>
-  </si>
-  <si>
-    <t>指定区域类型、区域文件名及其保存路径的主配置文件是（    ）</t>
-  </si>
-  <si>
-    <t>/etc/named.rfc1912.zones</t>
-  </si>
-  <si>
-    <t>主域名服务器的类型名称是（     ）</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>辅助域名服务器的类型名称是（      ）</t>
-  </si>
-  <si>
-    <t>slave</t>
-  </si>
-  <si>
-    <t>DNS主配置文件语法测试的命令</t>
-  </si>
-  <si>
-    <t>named-checkconf</t>
-  </si>
-  <si>
-    <t>测试DNS服务器的功能的命令有哪些</t>
-  </si>
-  <si>
-    <t>ping dig host nslookup</t>
-  </si>
-  <si>
-    <t>DNS服务器包括主域名服务器、辅助域名服务器、缓存域名服务器和(       )</t>
-  </si>
-  <si>
-    <t>转发服务器</t>
-  </si>
-  <si>
-    <t>超文本传输协议的英文是</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>web服务设置主目录的参数是</t>
-  </si>
-  <si>
-    <t>DocumentRoot</t>
-  </si>
-  <si>
-    <t>web服务设置指定主页的参数是</t>
-  </si>
-  <si>
-    <t>DirectoryIndex</t>
-  </si>
-  <si>
-    <t>在httpd.conf配置文件中，虚拟主机由&lt;       &gt;段定义</t>
-  </si>
-  <si>
-    <t>VirtualHost</t>
-  </si>
-  <si>
-    <t>web服务的默认端口是</t>
-  </si>
-  <si>
-    <t>定义虚拟目录（别名）的参数是</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>设置网站最大连接数的参数是</t>
-  </si>
-  <si>
-    <t>MaxClients</t>
-  </si>
-  <si>
-    <t>apache服务主配置文件包括Global Environment、'Main' server configuration及</t>
-  </si>
-  <si>
-    <t>Virtual Hosts</t>
-  </si>
-  <si>
-    <t>通常使用（     ）编辑配置文件，并且有颜色区分便于检测拼写错误</t>
-  </si>
-  <si>
-    <t>vim</t>
   </si>
 </sst>
 </file>
@@ -326,7 +49,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +66,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -826,137 +556,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -976,6 +706,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,7 +1053,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1336,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1346,7 +1088,7 @@
       <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1360,681 +1102,393 @@
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
-        <v>2</v>
+      <c r="D3" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="D22" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="D23" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="D24" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A44" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A45" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A46" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="10">
-        <v>80</v>
-      </c>
-      <c r="D47" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A50" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A51" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2</v>
-      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
       <c r="B52" s="3"/>

--- a/template/班别_admin.xlsx
+++ b/template/班别_admin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15000"/>
+    <workbookView windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
   </si>
@@ -33,10 +33,13 @@
 </t>
   </si>
   <si>
-    <t>samba</t>
+    <t>c</t>
   </si>
   <si>
     <t>(        )可以让Linux支持SMB协议，实现跨平台共享文件和打印服务</t>
+  </si>
+  <si>
+    <t>samba</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -715,21 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1050,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1088,7 +1076,7 @@
       <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1100,430 +1088,46 @@
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+    <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+    <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A31" s="12">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A33" s="12">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A34" s="12">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A35" s="12">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A36" s="12">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A37" s="12">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A38" s="12">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A39" s="12">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A40" s="12">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A41" s="12">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A42" s="12">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A43" s="12">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A44" s="12">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A45" s="12">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A46" s="12">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A47" s="12">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A48" s="12">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A49" s="12">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A51" s="12">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
